--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2881.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2881.xlsx
@@ -354,7 +354,7 @@
         <v>1.845012938594695</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.85700675598177</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2881.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2881.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.204810684911017</v>
+        <v>2.397975444793701</v>
       </c>
       <c r="B1">
-        <v>1.845012938594695</v>
+        <v>2.67406702041626</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.871906757354736</v>
       </c>
       <c r="D1">
-        <v>1.85700675598177</v>
+        <v>3.174413204193115</v>
       </c>
       <c r="E1">
-        <v>1.203764813374367</v>
+        <v>0.8022944927215576</v>
       </c>
     </row>
   </sheetData>
